--- a/Reports/heart/heart_tabfairgan_50_1.xlsx
+++ b/Reports/heart/heart_tabfairgan_50_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0573</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0013</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9971</v>
+        <v>1.1835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0112</v>
+        <v>0.7964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0143</v>
+        <v>-0.2143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0298</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0733</v>
+        <v>0.1837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.1577</v>
+        <v>1.3462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005</v>
+        <v>-0.1029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0007</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6109</v>
+        <v>0.6424</v>
       </c>
     </row>
     <row r="13">
